--- a/spliced/falling/2023-03-25_18-04-08/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-04-08/accelerometer_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,233 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-3.523949909210205</v>
+        <v>-3.555192089080811</v>
       </c>
       <c r="B2" t="n">
-        <v>4.786228704452514</v>
+        <v>4.907798504829406</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.791911107301711</v>
+        <v>-2.923101136088372</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-4.734984159469604</v>
+        <v>-3.523949909210205</v>
       </c>
       <c r="B3" t="n">
-        <v>4.268091917037964</v>
+        <v>4.786228704452514</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.5654808729887018</v>
+        <v>-1.791911107301711</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-5.463105487823487</v>
+        <v>-4.734984159469604</v>
       </c>
       <c r="B4" t="n">
-        <v>3.789239883422852</v>
+        <v>4.268091917037964</v>
       </c>
       <c r="C4" t="n">
-        <v>0.125382423400879</v>
+        <v>-0.5654808729887018</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-6.153488552570344</v>
+        <v>-5.463105487823487</v>
       </c>
       <c r="B5" t="n">
-        <v>2.863918662071227</v>
+        <v>3.789239883422852</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.2511623546481139</v>
+        <v>0.125382423400879</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-7.365730333328246</v>
+        <v>-6.153488552570344</v>
       </c>
       <c r="B6" t="n">
-        <v>1.174339866638185</v>
+        <v>2.863918662071227</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3271868914365764</v>
+        <v>-0.2511623546481139</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-7.554701018333435</v>
+        <v>-7.365730333328246</v>
       </c>
       <c r="B7" t="n">
-        <v>1.320136770606041</v>
+        <v>1.174339866638185</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9918349981307982</v>
+        <v>0.3271868914365764</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-6.541906356811527</v>
+        <v>-7.554701018333435</v>
       </c>
       <c r="B8" t="n">
-        <v>3.541345179080956</v>
+        <v>1.320136770606041</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.3953665494918761</v>
+        <v>0.9918349981307982</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>41.03047697544085</v>
+        <v>-6.541906356811527</v>
       </c>
       <c r="B9" t="n">
-        <v>6.894529008865351</v>
+        <v>3.541345179080956</v>
       </c>
       <c r="C9" t="n">
-        <v>-6.942315888404829</v>
+        <v>-0.3953665494918761</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>64.96824674606313</v>
+        <v>41.03047697544085</v>
       </c>
       <c r="B10" t="n">
-        <v>6.919658172130577</v>
+        <v>6.894529008865351</v>
       </c>
       <c r="C10" t="n">
-        <v>-9.210757869482023</v>
+        <v>-6.942315888404829</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-6.831269806623445</v>
+        <v>64.96824674606313</v>
       </c>
       <c r="B11" t="n">
-        <v>3.269432669878014</v>
+        <v>6.919658172130577</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.1760272979736253</v>
+        <v>-9.210757869482023</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-2.175523471832268</v>
+        <v>-6.831269806623445</v>
       </c>
       <c r="B12" t="n">
-        <v>5.449279594421388</v>
+        <v>3.269432669878014</v>
       </c>
       <c r="C12" t="n">
-        <v>1.586600971221922</v>
+        <v>-0.1760272979736253</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2.27016156911849</v>
+        <v>-2.175523471832268</v>
       </c>
       <c r="B13" t="n">
-        <v>5.673981070518497</v>
+        <v>5.449279594421388</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4227319359779442</v>
+        <v>1.586600971221922</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4.514346599578862</v>
+        <v>2.27016156911849</v>
       </c>
       <c r="B14" t="n">
-        <v>5.118150138854979</v>
+        <v>5.673981070518497</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.915704894065858</v>
+        <v>0.4227319359779442</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-6.036725759506252</v>
+        <v>4.514346599578862</v>
       </c>
       <c r="B15" t="n">
-        <v>9.008556652069101</v>
+        <v>5.118150138854979</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.9792453408241246</v>
+        <v>-1.915704894065858</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-1.178059291839593</v>
+        <v>-6.036725759506252</v>
       </c>
       <c r="B16" t="n">
-        <v>4.555799674987787</v>
+        <v>9.008556652069101</v>
       </c>
       <c r="C16" t="n">
-        <v>3.518247509002693</v>
+        <v>-0.9792453408241246</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-1.642422831058502</v>
+        <v>-1.178059291839593</v>
       </c>
       <c r="B17" t="n">
-        <v>6.837077736854553</v>
+        <v>4.555799674987787</v>
       </c>
       <c r="C17" t="n">
-        <v>3.844039088487625</v>
+        <v>3.518247509002693</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.4585734605789122</v>
+        <v>-1.642422831058502</v>
       </c>
       <c r="B18" t="n">
-        <v>6.029543757438664</v>
+        <v>6.837077736854553</v>
       </c>
       <c r="C18" t="n">
-        <v>3.976011931896209</v>
+        <v>3.844039088487625</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.8665444850921629</v>
+        <v>0.4585734605789122</v>
       </c>
       <c r="B19" t="n">
-        <v>5.183062970638275</v>
+        <v>6.029543757438664</v>
       </c>
       <c r="C19" t="n">
-        <v>4.418135178089142</v>
+        <v>3.976011931896209</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.2307996749877924</v>
+        <v>0.8665444850921629</v>
       </c>
       <c r="B20" t="n">
-        <v>4.777379417419433</v>
+        <v>5.183062970638275</v>
       </c>
       <c r="C20" t="n">
-        <v>4.424502086639404</v>
+        <v>4.418135178089142</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-0.31689715385437</v>
+        <v>0.2307996749877924</v>
       </c>
       <c r="B21" t="n">
-        <v>4.877218794822693</v>
+        <v>4.777379417419433</v>
       </c>
       <c r="C21" t="n">
-        <v>4.225887775421143</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>-0.4965919017791747</v>
-      </c>
-      <c r="B22" t="n">
-        <v>5.156597185134888</v>
-      </c>
-      <c r="C22" t="n">
-        <v>4.267510080337524</v>
+        <v>4.424502086639404</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-25_18-04-08/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-04-08/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-3.555192089080811</v>
+        <v>-3.789114356040955</v>
       </c>
       <c r="B2" t="n">
-        <v>4.907798504829406</v>
+        <v>5.144325375556946</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.923101136088372</v>
+        <v>-3.264913499355316</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-3.523949909210205</v>
+        <v>-3.717108857631684</v>
       </c>
       <c r="B3" t="n">
-        <v>4.786228704452514</v>
+        <v>5.147888684272766</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.791911107301711</v>
+        <v>-3.339606630802154</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-4.734984159469604</v>
+        <v>-3.921339607238769</v>
       </c>
       <c r="B4" t="n">
-        <v>4.268091917037964</v>
+        <v>5.102599048614501</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.5654808729887018</v>
+        <v>-3.249480080604553</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-5.463105487823487</v>
+        <v>-3.555192089080811</v>
       </c>
       <c r="B5" t="n">
-        <v>3.789239883422852</v>
+        <v>4.907798504829406</v>
       </c>
       <c r="C5" t="n">
-        <v>0.125382423400879</v>
+        <v>-2.923101136088372</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-6.153488552570344</v>
+        <v>-3.523949909210205</v>
       </c>
       <c r="B6" t="n">
-        <v>2.863918662071227</v>
+        <v>4.786228704452514</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.2511623546481139</v>
+        <v>-1.791911107301711</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-7.365730333328246</v>
+        <v>-4.734984159469604</v>
       </c>
       <c r="B7" t="n">
-        <v>1.174339866638185</v>
+        <v>4.268091917037964</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3271868914365764</v>
+        <v>-0.5654808729887018</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-7.554701018333435</v>
+        <v>-5.463105487823487</v>
       </c>
       <c r="B8" t="n">
-        <v>1.320136770606041</v>
+        <v>3.789239883422852</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9918349981307982</v>
+        <v>0.125382423400879</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-6.541906356811527</v>
+        <v>-6.153488552570344</v>
       </c>
       <c r="B9" t="n">
-        <v>3.541345179080956</v>
+        <v>2.863918662071227</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.3953665494918761</v>
+        <v>-0.2511623546481139</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>41.03047697544085</v>
+        <v>-7.365730333328246</v>
       </c>
       <c r="B10" t="n">
-        <v>6.894529008865351</v>
+        <v>1.174339866638185</v>
       </c>
       <c r="C10" t="n">
-        <v>-6.942315888404829</v>
+        <v>0.3271868914365764</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>64.96824674606313</v>
+        <v>-7.554701018333435</v>
       </c>
       <c r="B11" t="n">
-        <v>6.919658172130577</v>
+        <v>1.320136770606041</v>
       </c>
       <c r="C11" t="n">
-        <v>-9.210757869482023</v>
+        <v>0.9918349981307982</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-6.831269806623445</v>
+        <v>-6.541906356811527</v>
       </c>
       <c r="B12" t="n">
-        <v>3.269432669878014</v>
+        <v>3.541345179080956</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.1760272979736253</v>
+        <v>-0.3953665494918761</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-2.175523471832268</v>
+        <v>41.03047697544085</v>
       </c>
       <c r="B13" t="n">
-        <v>5.449279594421388</v>
+        <v>6.894529008865351</v>
       </c>
       <c r="C13" t="n">
-        <v>1.586600971221922</v>
+        <v>-6.942315888404829</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2.27016156911849</v>
+        <v>64.96824674606313</v>
       </c>
       <c r="B14" t="n">
-        <v>5.673981070518497</v>
+        <v>6.919658172130577</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4227319359779442</v>
+        <v>-9.210757869482023</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4.514346599578862</v>
+        <v>-6.831269806623445</v>
       </c>
       <c r="B15" t="n">
-        <v>5.118150138854979</v>
+        <v>3.269432669878014</v>
       </c>
       <c r="C15" t="n">
-        <v>-1.915704894065858</v>
+        <v>-0.1760272979736253</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-6.036725759506252</v>
+        <v>-2.175523471832268</v>
       </c>
       <c r="B16" t="n">
-        <v>9.008556652069101</v>
+        <v>5.449279594421388</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.9792453408241246</v>
+        <v>1.586600971221922</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-1.178059291839593</v>
+        <v>2.27016156911849</v>
       </c>
       <c r="B17" t="n">
-        <v>4.555799674987787</v>
+        <v>5.673981070518497</v>
       </c>
       <c r="C17" t="n">
-        <v>3.518247509002693</v>
+        <v>0.4227319359779442</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-1.642422831058502</v>
+        <v>4.514346599578862</v>
       </c>
       <c r="B18" t="n">
-        <v>6.837077736854553</v>
+        <v>5.118150138854979</v>
       </c>
       <c r="C18" t="n">
-        <v>3.844039088487625</v>
+        <v>-1.915704894065858</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.4585734605789122</v>
+        <v>-6.036725759506252</v>
       </c>
       <c r="B19" t="n">
-        <v>6.029543757438664</v>
+        <v>9.008556652069101</v>
       </c>
       <c r="C19" t="n">
-        <v>3.976011931896209</v>
+        <v>-0.9792453408241246</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.8665444850921629</v>
+        <v>-1.178059291839593</v>
       </c>
       <c r="B20" t="n">
-        <v>5.183062970638275</v>
+        <v>4.555799674987787</v>
       </c>
       <c r="C20" t="n">
-        <v>4.418135178089142</v>
+        <v>3.518247509002693</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>-1.642422831058502</v>
+      </c>
+      <c r="B21" t="n">
+        <v>6.837077736854553</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3.844039088487625</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.4585734605789122</v>
+      </c>
+      <c r="B22" t="n">
+        <v>6.029543757438664</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3.976011931896209</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.8665444850921629</v>
+      </c>
+      <c r="B23" t="n">
+        <v>5.183062970638275</v>
+      </c>
+      <c r="C23" t="n">
+        <v>4.418135178089142</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
         <v>0.2307996749877924</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B24" t="n">
         <v>4.777379417419433</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C24" t="n">
         <v>4.424502086639404</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-0.31689715385437</v>
+      </c>
+      <c r="B25" t="n">
+        <v>4.877218794822693</v>
+      </c>
+      <c r="C25" t="n">
+        <v>4.225887775421143</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-0.4965919017791747</v>
+      </c>
+      <c r="B26" t="n">
+        <v>5.156597185134888</v>
+      </c>
+      <c r="C26" t="n">
+        <v>4.267510080337524</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.5277259349822996</v>
+      </c>
+      <c r="B27" t="n">
+        <v>5.028044939041139</v>
+      </c>
+      <c r="C27" t="n">
+        <v>4.214276224374771</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-0.6842149734497071</v>
+      </c>
+      <c r="B28" t="n">
+        <v>4.842281723022461</v>
+      </c>
+      <c r="C28" t="n">
+        <v>3.947901606559754</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-0.5955237627029424</v>
+      </c>
+      <c r="B29" t="n">
+        <v>5.176781976222992</v>
+      </c>
+      <c r="C29" t="n">
+        <v>4.094217467308044</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-0.1085210800170896</v>
+      </c>
+      <c r="B30" t="n">
+        <v>5.183276605606079</v>
+      </c>
+      <c r="C30" t="n">
+        <v>4.1697988986969</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-0.2790900230407717</v>
+      </c>
+      <c r="B31" t="n">
+        <v>5.053058326244355</v>
+      </c>
+      <c r="C31" t="n">
+        <v>4.114621889591216</v>
       </c>
     </row>
   </sheetData>
